--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value196.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value196.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.144996425596488</v>
+        <v>4.410745620727539</v>
       </c>
       <c r="B1">
-        <v>1.835814250021207</v>
+        <v>3.507086038589478</v>
       </c>
       <c r="C1">
-        <v>2.715534359636816</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.348227119439644</v>
+        <v>3.730283498764038</v>
       </c>
       <c r="E1">
-        <v>0.6602198080807303</v>
+        <v>3.222220420837402</v>
       </c>
     </row>
   </sheetData>
